--- a/data/2/20230603-a1r-nc-session2-e_transcript.xlsx
+++ b/data/2/20230603-a1r-nc-session2-e_transcript.xlsx
@@ -1,447 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:03 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A247A5-15D0-C547-ABB1-0C3008F4EE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230603-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"17:45"</t>
-  </si>
-  <si>
-    <t>I don't like anything that gives the party leaders more power.</t>
-  </si>
-  <si>
-    <t>"17:53"</t>
-  </si>
-  <si>
-    <t>I agree, 100%.</t>
-  </si>
-  <si>
-    <t>"17:56"</t>
-  </si>
-  <si>
-    <t>Yeah, i-i've never agreed with an electoral college. I would rather just have it be based off of popular vote and just have whatever one has the main majority going toward this portion, then that person should</t>
-  </si>
-  <si>
-    <t>"18:12"</t>
-  </si>
-  <si>
-    <t>I think the topic of National Party conventions and giving the party more Choice, the party leaders more choices in is wrong. It should be an event that person's determined from that event, not prior to that event as it is today as well. Another topic but thank you.</t>
-  </si>
-  <si>
-    <t>"18:32"</t>
-  </si>
-  <si>
-    <t>Yeah, like the echo. What everyone else is saying having in the party leader is have more power. Seems like this is a question that the party leaders created for themselves.</t>
-  </si>
-  <si>
-    <t>"18:44"</t>
-  </si>
-  <si>
-    <t>I just feel compelled to point out that the founders, the people that wrote the Constitution, never intended for the president to be a popular choice. The choice was never whether there was going to be a popular vote or another vote. It was always between Congress deciding who the president is and the states. And the Electoral College was a compromise that they came up where someone other than state legislators from the state could determine the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> President of the United States who was supposed to lead the executive branch. Not be the most popular person in the country. So I think from that point of view I like the the</t>
-  </si>
-  <si>
-    <t>"19:33"</t>
-  </si>
-  <si>
-    <t>Whatever. The original idea of the founding fathers, it doesn't seem to have worked out that way. I mean, it seems to be for as long as I can remember. You know, we it seems to be the most popular person wins.</t>
-  </si>
-  <si>
-    <t>"19:52"</t>
-  </si>
-  <si>
-    <t>Yeah, I understand that the my point is the Constitution which they're talking about where that was written. Was written with that in mind, not having what made it popular was the parties that were not supposed to be any parties in the beginning. At first, they thought they could do without them, but the party sort of made it about popularity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And the idea is they're supposed to pick the most qualified candidate and vet the most qualified person to be that candidate.</t>
-  </si>
-  <si>
-    <t>"21:47"</t>
-  </si>
-  <si>
-    <t>I think the popular vote there need to be if we would ever move to something like that, there'd have to be some kind of Regulation about the money spent because it tends to in what we see now is Whoever has the most money Whoever has the most Splash and social media and and all over. They get the most votes. And that's not necessarily the most qualified candidate. So somehow, if you would ever move to that kind of system, you'd have to take the money out of the paper voting</t>
-  </si>
-  <si>
-    <t>"22:17"</t>
-  </si>
-  <si>
-    <t>Woman. Yeah, I'm all for eliminating, the Electoral College, amending, the Constitution, the way it is. Now though, I mean it's the most money that wins now with the Electoral College. I mean, I don't that that wouldn't be much different than the changes. It's still popularity contest.</t>
-  </si>
-  <si>
-    <t>"22:39"</t>
-  </si>
-  <si>
-    <t>Yeah, I don't I've never really understood the electron Electoral College. Always confused me.</t>
-  </si>
-  <si>
-    <t>"22:47"</t>
-  </si>
-  <si>
-    <t>I don't think the problem is this much, the Electoral College as it is. The let the lack of parties, there's only two parties in those two parties are supposed to represent all Americans and it's there. It's an America that's becoming more and more Diversified. I think we could I think we could save the whole system as it is if we just open it, make it easier to have other, you know, two or three other parties in there.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> That would also run for these elections.</t>
-  </si>
-  <si>
-    <t>"23:24"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with Chris a statement on to that reject or that other statement. It is already a dog and pony show. And I feel like the last election really kind of not the last one, but the one before really kind of prove that if you have enough money, you can pretty much buy your way in. And it's, it shouldn't be like that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I mean, I think popular votes one way to try to take that away, but it does need a lot of reform in other areas for that to really be bees.</t>
-  </si>
-  <si>
-    <t>"23:56"</t>
-  </si>
-  <si>
-    <t>I totally agree.</t>
-  </si>
-  <si>
-    <t>"25:15"</t>
-  </si>
-  <si>
-    <t>"25:19"</t>
-  </si>
-  <si>
-    <t>Did I hear her correctly? Somebody, please let me know where the state would vote for the, what the rest of the country decided. So the State loses its own individual, right? Is that what they're proposing? It seems kind of wrong for this dates.</t>
-  </si>
-  <si>
-    <t>"25:36"</t>
-  </si>
-  <si>
-    <t>Yeah, it does sound like that's what was being proposed. It was almost like a popular, like, a forced popular vote from the position of the states and it doesn't sound right, but it is a little bit toward what giving back the power of a popular vote to the people who would be. It just seems a little strange.</t>
-  </si>
-  <si>
-    <t>"25:59"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree. It does sound like that but I think what the actual idea is is that State's ban together and you know just sort of like create a coalition, they would all be voting for a particular candidate. They their states would all be agreeing on a particular candidate. I think. And they would form this popular vote compact where all their electoral votes would would then become</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, a coalition that would fight any other electoral votes, that would come from some other state. So they would combine all their electoral votes, but they already popularly chose that candidate.</t>
-  </si>
-  <si>
-    <t>"26:44"</t>
-  </si>
-  <si>
-    <t>I don't even see the relevance of an electoral college with this type of system. It seems to me, it's just another way of saying it's a popular vote.</t>
-  </si>
-  <si>
-    <t>"26:57"</t>
-  </si>
-  <si>
-    <t>Says, it's in run around the Constitution. I don't think we should be doing that.</t>
-  </si>
-  <si>
-    <t>"27:05"</t>
-  </si>
-  <si>
-    <t>I'm of the firm belief that the constitution is not infallible and it can be changed if if need be.</t>
-  </si>
-  <si>
-    <t>"27:14"</t>
-  </si>
-  <si>
-    <t>Well I agree with both of the last two speakers, so if we want to change the Electoral College, then we should do it the right way and get 37 states to agree to it. I believe the compact though is an end run around the Constitution and I don't believe we should do it that way.</t>
-  </si>
-  <si>
-    <t>"27:33"</t>
-  </si>
-  <si>
-    <t>Oh I do have a question about that too. If they do start coalition's they're going to be doing it in states that have want to have like the same person coming up. So wouldn't couldn't that possibly create more division in America and more partisan type of? What is kind of already going? Would like the RNC and the DNC where it would just be blown up on a massive state scale though.</t>
-  </si>
-  <si>
-    <t>"27:58"</t>
-  </si>
-  <si>
-    <t>I don't believe that's what the point of the interstate compact is. I think it's just all these states coming together and saying that yes we will assign all of our delegates to vote for whoever wins the national popular vote. It's they're not trying to you know pick a side one way or the other. They're just saying we're not going to be splitting up our electoral votes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> It's or, you know, going against the will of the popular vote. We're just putting all of our boats with the whoever wins the popular vote. Be it. What? Whichever party.</t>
-  </si>
-  <si>
-    <t>"28:36"</t>
-  </si>
-  <si>
-    <t>So if what you just said would that mean that it takes us out of the voting system? Because if the states are coming together for the popular vote, the more do our votes, actually stand in, if it's not a state-by-state vote, if that makes sense.</t>
-  </si>
-  <si>
-    <t>"28:57"</t>
-  </si>
-  <si>
-    <t>I think the thing to if there was a compact from the beginning, it would have changed for elections including the two of the last four.</t>
-  </si>
-  <si>
-    <t>So I think that's where a lot of this is coming. It would have changed the election of I think 2000 and the election of 2016. It would have given both of those elections to the other candidates because they won the popular vote.</t>
-  </si>
-  <si>
-    <t>"29:28"</t>
-  </si>
-  <si>
-    <t>"31:00"</t>
-  </si>
-  <si>
-    <t>I said, keep it at nine.</t>
-  </si>
-  <si>
-    <t>"31:03"</t>
-  </si>
-  <si>
-    <t>"31:25"</t>
-  </si>
-  <si>
-    <t>I think having nine justices is a good number and I don't like the idea of either party that's in power being able to pack the court with whoever they decide is, it's going to help their case. I do like the idea of having the, what was it, an 18-year maximum with new? Just disappointed every two years, I think.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Idea. So we don't get stuck in some sticky situations that we may or may not be in right now.</t>
-  </si>
-  <si>
-    <t>"32:05"</t>
-  </si>
-  <si>
-    <t>I could give a rat's behind many Supreme Court. Justices there are as long as it's made to where they can't pack the Supreme Court with one Presidents or one parties.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Candidates of their choice. I do agree with term limits, too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eighteen years, I guess sounds good. It could be a different number but not lifetime.</t>
-  </si>
-  <si>
-    <t>"32:33"</t>
-  </si>
-  <si>
-    <t>I do agree that nine members seems adequate to me and I do agree with the agent term limits because it seems to cause too much chaos when someone dies in term and then you have to it's just too chaotic and I also agree that they should be held to the same ethical standards as well. Judges off.</t>
-  </si>
-  <si>
-    <t>"32:59"</t>
-  </si>
-  <si>
-    <t>Hi, I just going everyone's agreement, especially regarding the permanent stress because I think even a teenager's a little too generous but you know, time change so quickly. And you know if the justices remain in power and don't rotate enough to know they're no longer really at going any of the newer Generations opinion and therefore they're not really representative of, you know, they're not serving</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making the correct judgment for the rest of their citizens.</t>
-  </si>
-  <si>
-    <t>"33:35"</t>
-  </si>
-  <si>
-    <t>I agree with the term limits that 18 years, sounds good in the nine judges sounds good, and also that they should be held accountable to the same federal judges as everyone else.</t>
-  </si>
-  <si>
-    <t>"33:49"</t>
-  </si>
-  <si>
-    <t>I think nine justices is adequate as well. I agree with that. And as far as the ethical standards, I see no reason why Supreme Court Justices should not be held to the same ethical standards as other federal judges. I don't understand why they aren't as for the 18 year term. I don't mind the lifetime term. I think the problem is actually with the Senate. That's not representative and the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The rules of the Senate itself. However, if it requires to put term limits on the Supreme Court, as long as we do it, according to the Constitution, in order to change that, then I'm for them.</t>
-  </si>
-  <si>
-    <t>"34:34"</t>
-  </si>
-  <si>
-    <t>I agree with Dino. I think the nine is plenty and they 18 years, I think is a good idea.</t>
-  </si>
-  <si>
-    <t>"34:48"</t>
-  </si>
-  <si>
-    <t>I agree 100% that they should all be held to the same ethical standards, but I don't really think like the number. The term limit is really the issue when it comes to people. Talk about Supreme Court Justices. I think it's the way that they get into that position and it's being picked by political party leaders. Instead of being picked by people, I mean, we vote on a local and state level for judges and stuff. Why can't we do that at a federal level as well for the Supreme Court, it just seems a little</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> off-centered.</t>
-  </si>
-  <si>
-    <t>"35:18"</t>
-  </si>
-  <si>
-    <t>Agreed.</t>
-  </si>
-  <si>
-    <t>"35:21"</t>
-  </si>
-  <si>
-    <t>"35:28"</t>
-  </si>
-  <si>
-    <t>"36:43"</t>
-  </si>
-  <si>
-    <t>I think anything that gives more funding to schools for things like this is a win for everybody.</t>
-  </si>
-  <si>
-    <t>"36:54"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with that 100%. Some civic education should be in schools because I could tell you I had never learned anything about voting or politics or taxes or anything in school that would definitely if increase the state funding to teach kids. That would be awesome.</t>
-  </si>
-  <si>
-    <t>"37:13"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with that and I just the reason I agree with it is democracy is a participative Endeavor. I mean if if you're not yet the people in order for popular sovereignty to work, the people have to participate in that sovereignty and I don't know how you do that without at least some kind of education about what the system is and what you can do in it. And I also think getting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> People more involved in dealing with local issues, would be a big help in that regard.</t>
-  </si>
-  <si>
-    <t>"37:53"</t>
-  </si>
-  <si>
-    <t>I totally agree with what I've been learning things. I grew up in California, and hardly, learn math. So this would be a good thing, agree.</t>
-  </si>
-  <si>
-    <t>"38:05"</t>
-  </si>
-  <si>
-    <t>I agree with all of you.</t>
-  </si>
-  <si>
-    <t>"38:09"</t>
-  </si>
-  <si>
-    <t>Looks like we all agree. I believe it would really help things.</t>
-  </si>
-  <si>
-    <t>"38:14"</t>
-  </si>
-  <si>
-    <t>Just one more note, I believe to become a citizen of the United States. You have to pass like a citizenship test, that has a lot to do with Civic engagement and things like that. So if we're requiring people that want to come to this country to learn all this stuff as well. I mean, at least we should do is teach it to our own kids.</t>
-  </si>
-  <si>
-    <t>"38:38"</t>
-  </si>
-  <si>
-    <t>I do agree in increasing funding for civic education. I just wonder how early they would do it because Society has become very apathetic I think we're losing a generation who really don't care.</t>
-  </si>
-  <si>
-    <t>"38:55"</t>
-  </si>
-  <si>
-    <t>Yeah, I do a song and you know, everything before that, you know, for my generation at least like Millennials out, we don't really know what's going on. So I think if we could get more civic education, starting from like middle school as early as that, it would be extremely helpful. And I think own for the second option about organizing more deliberate Nation session. I don't know if that would be super helpful,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Because I think people already know organized separately. So I don't know if that would be the best use of funds personally.</t>
-  </si>
-  <si>
-    <t>"44:02"</t>
-  </si>
-  <si>
-    <t>I just want to say, I think this is a pretty direct question. It's a good question as it is.</t>
-  </si>
-  <si>
-    <t>"44:35"</t>
-  </si>
-  <si>
-    <t>I think that's an excellent question. How can our system teach in high school Polly demon?</t>
-  </si>
-  <si>
-    <t>"45:46"</t>
-  </si>
-  <si>
-    <t>I think this is a very good question. I mean, I think if we did move to a purely electoral college system, this would be one of the big issues that we would need to discuss before moving to moving. So, radically in that direction,</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -517,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -623,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1705,942 +1293,1147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS78"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"17:45"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>I don't like anything that gives the party leaders more power.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48365</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"17:53"</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>I agree, 100%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"17:56"</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, i-i've never agreed with an electoral college. I would rather just have it be based off of popular vote and just have whatever one has the main majority going toward this portion, then that person should</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>48417</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"18:12"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>I think the topic of National Party conventions and giving the party more Choice, the party leaders more choices in is wrong. It should be an event that person's determined from that event, not prior to that event as it is today as well. Another topic but thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"18:32"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, like the echo. What everyone else is saying having in the party leader is have more power. Seems like this is a question that the party leaders created for themselves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"18:44"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>I just feel compelled to point out that the founders, the people that wrote the Constitution, never intended for the president to be a popular choice. The choice was never whether there was going to be a popular vote or another vote. It was always between Congress deciding who the president is and the states. And the Electoral College was a compromise that they came up where someone other than state legislators from the state could determine the</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"18:44"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> President of the United States who was supposed to lead the executive branch. Not be the most popular person in the country. So I think from that point of view I like the the</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"19:33"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Whatever. The original idea of the founding fathers, it doesn't seem to have worked out that way. I mean, it seems to be for as long as I can remember. You know, we it seems to be the most popular person wins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"19:52"</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I understand that the my point is the Constitution which they're talking about where that was written. Was written with that in mind, not having what made it popular was the parties that were not supposed to be any parties in the beginning. At first, they thought they could do without them, but the party sort of made it about popularity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"19:52"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And the idea is they're supposed to pick the most qualified candidate and vet the most qualified person to be that candidate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>48417</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"21:47"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>I think the popular vote there need to be if we would ever move to something like that, there'd have to be some kind of Regulation about the money spent because it tends to in what we see now is Whoever has the most money Whoever has the most Splash and social media and and all over. They get the most votes. And that's not necessarily the most qualified candidate. So somehow, if you would ever move to that kind of system, you'd have to take the money out of the paper voting</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"22:17"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Woman. Yeah, I'm all for eliminating, the Electoral College, amending, the Constitution, the way it is. Now though, I mean it's the most money that wins now with the Electoral College. I mean, I don't that that wouldn't be much different than the changes. It's still popularity contest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48409</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"22:39"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I don't I've never really understood the electron Electoral College. Always confused me.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"22:47"</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>I don't think the problem is this much, the Electoral College as it is. The let the lack of parties, there's only two parties in those two parties are supposed to represent all Americans and it's there. It's an America that's becoming more and more Diversified. I think we could I think we could save the whole system as it is if we just open it, make it easier to have other, you know, two or three other parties in there.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"22:47"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> That would also run for these elections.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"23:24"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with Chris a statement on to that reject or that other statement. It is already a dog and pony show. And I feel like the last election really kind of not the last one, but the one before really kind of prove that if you have enough money, you can pretty much buy your way in. And it's, it shouldn't be like that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"23:24"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I mean, I think popular votes one way to try to take that away, but it does need a lot of reform in other areas for that to really be bees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48365</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"23:56"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>I totally agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>48365</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"25:15"</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48417</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"25:19"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>Did I hear her correctly? Somebody, please let me know where the state would vote for the, what the rest of the country decided. So the State loses its own individual, right? Is that what they're proposing? It seems kind of wrong for this dates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"25:36"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, it does sound like that's what was being proposed. It was almost like a popular, like, a forced popular vote from the position of the states and it doesn't sound right, but it is a little bit toward what giving back the power of a popular vote to the people who would be. It just seems a little strange.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"25:59"</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"25:59"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree. It does sound like that but I think what the actual idea is is that State's ban together and you know just sort of like create a coalition, they would all be voting for a particular candidate. They their states would all be agreeing on a particular candidate. I think. And they would form this popular vote compact where all their electoral votes would would then become</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"25:59"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Um, a coalition that would fight any other electoral votes, that would come from some other state. So they would combine all their electoral votes, but they already popularly chose that candidate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"26:44"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>I don't even see the relevance of an electoral college with this type of system. It seems to me, it's just another way of saying it's a popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>9833</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"26:57"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>Says, it's in run around the Constitution. I don't think we should be doing that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"27:05"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>I'm of the firm belief that the constitution is not infallible and it can be changed if if need be.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"27:14"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>Well I agree with both of the last two speakers, so if we want to change the Electoral College, then we should do it the right way and get 37 states to agree to it. I believe the compact though is an end run around the Constitution and I don't believe we should do it that way.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"27:33"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>Oh I do have a question about that too. If they do start coalition's they're going to be doing it in states that have want to have like the same person coming up. So wouldn't couldn't that possibly create more division in America and more partisan type of? What is kind of already going? Would like the RNC and the DNC where it would just be blown up on a massive state scale though.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"27:58"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>I don't believe that's what the point of the interstate compact is. I think it's just all these states coming together and saying that yes we will assign all of our delegates to vote for whoever wins the national popular vote. It's they're not trying to you know pick a side one way or the other. They're just saying we're not going to be splitting up our electoral votes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"27:58"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> It's or, you know, going against the will of the popular vote. We're just putting all of our boats with the whoever wins the popular vote. Be it. What? Whichever party.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>9673</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"28:36"</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n"/>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>9673</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"28:36"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>So if what you just said would that mean that it takes us out of the voting system? Because if the states are coming together for the popular vote, the more do our votes, actually stand in, if it's not a state-by-state vote, if that makes sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"28:57"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>I think the thing to if there was a compact from the beginning, it would have changed for elections including the two of the last four.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"28:57"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>So I think that's where a lot of this is coming. It would have changed the election of I think 2000 and the election of 2016. It would have given both of those elections to the other candidates because they won the popular vote.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48365</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"29:28"</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n"/>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48365</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4">
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"31:00"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>I said, keep it at nine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="9">
+      <c r="A39" s="4" t="n">
         <v>9673</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4">
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>"31:03"</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n"/>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="9">
+      <c r="A40" s="4" t="n">
         <v>9673</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4">
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>"31:03"</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="n"/>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="9">
+      <c r="A41" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4">
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>"31:25"</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>I think having nine justices is a good number and I don't like the idea of either party that's in power being able to pack the court with whoever they decide is, it's going to help their case. I do like the idea of having the, what was it, an 18-year maximum with new? Just disappointed every two years, I think.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="9">
+      <c r="A42" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4">
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>"31:25"</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Idea. So we don't get stuck in some sticky situations that we may or may not be in right now.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="9">
+      <c r="A43" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4">
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>"32:05"</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>I could give a rat's behind many Supreme Court. Justices there are as long as it's made to where they can't pack the Supreme Court with one Presidents or one parties.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="9">
+      <c r="A44" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4">
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>"32:05"</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Candidates of their choice. I do agree with term limits, too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="9">
+      <c r="A45" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4">
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>"32:05"</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eighteen years, I guess sounds good. It could be a different number but not lifetime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="9">
+      <c r="A46" s="4" t="n">
         <v>48500</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4">
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>"32:33"</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>I do agree that nine members seems adequate to me and I do agree with the agent term limits because it seems to cause too much chaos when someone dies in term and then you have to it's just too chaotic and I also agree that they should be held to the same ethical standards as well. Judges off.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="9">
+      <c r="A47" s="4" t="n">
         <v>48437</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4">
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>"32:59"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>Hi, I just going everyone's agreement, especially regarding the permanent stress because I think even a teenager's a little too generous but you know, time change so quickly. And you know if the justices remain in power and don't rotate enough to know they're no longer really at going any of the newer Generations opinion and therefore they're not really representative of, you know, they're not serving</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="9">
+      <c r="A48" s="4" t="n">
         <v>48437</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4">
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>"32:59"</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> making the correct judgment for the rest of their citizens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="9">
+      <c r="A49" s="4" t="n">
         <v>48409</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4">
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>"33:35"</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>I agree with the term limits that 18 years, sounds good in the nine judges sounds good, and also that they should be held accountable to the same federal judges as everyone else.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="9">
+      <c r="A50" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4">
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>"33:49"</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>I think nine justices is adequate as well. I agree with that. And as far as the ethical standards, I see no reason why Supreme Court Justices should not be held to the same ethical standards as other federal judges. I don't understand why they aren't as for the 18 year term. I don't mind the lifetime term. I think the problem is actually with the Senate. That's not representative and the</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="9">
+      <c r="A51" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4">
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>"33:49"</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The rules of the Senate itself. However, if it requires to put term limits on the Supreme Court, as long as we do it, according to the Constitution, in order to change that, then I'm for them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="9">
+      <c r="A52" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4">
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>"33:49"</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="n"/>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="9">
+      <c r="A53" s="4" t="n">
         <v>9833</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4">
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>"34:34"</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="n"/>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="9">
+      <c r="A54" s="4" t="n">
         <v>9833</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4">
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>"34:34"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>I agree with Dino. I think the nine is plenty and they 18 years, I think is a good idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="9">
+      <c r="A55" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4">
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>"34:48"</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>I agree 100% that they should all be held to the same ethical standards, but I don't really think like the number. The term limit is really the issue when it comes to people. Talk about Supreme Court Justices. I think it's the way that they get into that position and it's being picked by political party leaders. Instead of being picked by people, I mean, we vote on a local and state level for judges and stuff. Why can't we do that at a federal level as well for the Supreme Court, it just seems a little</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" s="9">
+      <c r="A56" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4">
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>"34:48"</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> off-centered.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1" s="9">
+      <c r="A57" s="4" t="n">
         <v>48365</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="4">
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>"35:18"</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>Agreed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1" s="9">
+      <c r="A58" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="4">
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>"35:21"</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="n"/>
+    </row>
+    <row r="59" ht="20" customHeight="1" s="9">
+      <c r="A59" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="4">
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>"35:28"</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="n"/>
+    </row>
+    <row r="60" ht="20" customHeight="1" s="9">
+      <c r="A60" s="4" t="n">
         <v>9766</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4">
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>"35:28"</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="n"/>
+    </row>
+    <row r="61" ht="20" customHeight="1" s="9">
+      <c r="A61" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4">
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>"36:43"</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="n"/>
+    </row>
+    <row r="62" ht="20" customHeight="1" s="9">
+      <c r="A62" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4">
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>"36:43"</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>I think anything that gives more funding to schools for things like this is a win for everybody.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1" s="9">
+      <c r="A63" s="4" t="n">
         <v>48269</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="4">
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>"36:54"</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with that 100%. Some civic education should be in schools because I could tell you I had never learned anything about voting or politics or taxes or anything in school that would definitely if increase the state funding to teach kids. That would be awesome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" s="9">
+      <c r="A64" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="4">
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>"37:13"</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with that and I just the reason I agree with it is democracy is a participative Endeavor. I mean if if you're not yet the people in order for popular sovereignty to work, the people have to participate in that sovereignty and I don't know how you do that without at least some kind of education about what the system is and what you can do in it. And I also think getting</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" s="9">
+      <c r="A65" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="4">
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>"37:13"</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People more involved in dealing with local issues, would be a big help in that regard.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" s="9">
+      <c r="A66" s="4" t="n">
         <v>48365</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4">
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>"37:53"</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>I totally agree with what I've been learning things. I grew up in California, and hardly, learn math. So this would be a good thing, agree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1" s="9">
+      <c r="A67" s="4" t="n">
         <v>48409</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4">
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>"38:05"</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>I agree with all of you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" s="9">
+      <c r="A68" s="4" t="n">
         <v>9833</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4">
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>"38:09"</t>
+        </is>
+      </c>
+      <c r="C68" s="6" t="n"/>
+    </row>
+    <row r="69" ht="20" customHeight="1" s="9">
+      <c r="A69" s="4" t="n">
         <v>9833</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4">
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>"38:09"</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>Looks like we all agree. I believe it would really help things.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="20" customHeight="1" s="9">
+      <c r="A70" s="4" t="n">
         <v>48308</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4">
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>"38:14"</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>Just one more note, I believe to become a citizen of the United States. You have to pass like a citizenship test, that has a lot to do with Civic engagement and things like that. So if we're requiring people that want to come to this country to learn all this stuff as well. I mean, at least we should do is teach it to our own kids.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71" ht="20" customHeight="1" s="9">
+      <c r="A71" s="4" t="n">
         <v>48500</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4">
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>"38:38"</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>I do agree in increasing funding for civic education. I just wonder how early they would do it because Society has become very apathetic I think we're losing a generation who really don't care.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72" ht="20" customHeight="1" s="9">
+      <c r="A72" s="4" t="n">
         <v>48437</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="4">
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>"38:55"</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I do a song and you know, everything before that, you know, for my generation at least like Millennials out, we don't really know what's going on. So I think if we could get more civic education, starting from like middle school as early as that, it would be extremely helpful. And I think own for the second option about organizing more deliberate Nation session. I don't know if that would be super helpful,</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="20" customHeight="1" s="9">
+      <c r="A73" s="4" t="n">
         <v>48437</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="4">
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>"38:55"</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Because I think people already know organized separately. So I don't know if that would be the best use of funds personally.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="20" customHeight="1" s="9">
+      <c r="A74" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4">
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>"44:02"</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>I just want to say, I think this is a pretty direct question. It's a good question as it is.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1" s="9">
+      <c r="A75" s="4" t="n">
         <v>9833</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4">
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>"44:35"</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="n"/>
+    </row>
+    <row r="76" ht="20" customHeight="1" s="9">
+      <c r="A76" s="4" t="n">
         <v>9833</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4">
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>"44:35"</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>I think that's an excellent question. How can our system teach in high school Polly demon?</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" s="9">
+      <c r="A77" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4">
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>"45:46"</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="n"/>
+    </row>
+    <row r="78" ht="20" customHeight="1" s="9">
+      <c r="A78" s="4" t="n">
         <v>48301</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>114</v>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>"45:46"</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>I think this is a very good question. I mean, I think if we did move to a purely electoral college system, this would be one of the big issues that we would need to discuss before moving to moving. So, radically in that direction,</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FF5C78-DD67-A441-908E-F80F22B65351}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>